--- a/VolumeRenderer/energy_function_VisMale.xlsx
+++ b/VolumeRenderer/energy_function_VisMale.xlsx
@@ -493,9 +493,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2099,1507 +2098,1507 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="501"/>
                 <c:pt idx="0">
-                  <c:v>4.42509E-4</c:v>
+                  <c:v>4.2249500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3707000000000001E-4</c:v>
+                  <c:v>4.2251900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3170600000000002E-4</c:v>
+                  <c:v>4.22545E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2641800000000002E-4</c:v>
+                  <c:v>4.2257299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2120699999999999E-4</c:v>
+                  <c:v>4.2260300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1607100000000001E-4</c:v>
+                  <c:v>4.2263599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1101100000000003E-4</c:v>
+                  <c:v>4.2266999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0602699999999999E-4</c:v>
+                  <c:v>4.2270700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0111900000000002E-4</c:v>
+                  <c:v>4.2274600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9628599999999998E-4</c:v>
+                  <c:v>4.2278700000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9153000000000001E-4</c:v>
+                  <c:v>4.2283099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8684899999999998E-4</c:v>
+                  <c:v>4.2287600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8224400000000001E-4</c:v>
+                  <c:v>4.2292400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.77716E-4</c:v>
+                  <c:v>4.2297399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7326299999999998E-4</c:v>
+                  <c:v>4.2302600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6888600000000002E-4</c:v>
+                  <c:v>4.2307999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6458500000000001E-4</c:v>
+                  <c:v>4.23136E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6035899999999998E-4</c:v>
+                  <c:v>4.2319500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5620999999999998E-4</c:v>
+                  <c:v>4.2325599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5213699999999998E-4</c:v>
+                  <c:v>4.2331899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4813900000000002E-4</c:v>
+                  <c:v>4.2338399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4421700000000001E-4</c:v>
+                  <c:v>4.2345099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4037100000000001E-4</c:v>
+                  <c:v>4.2352000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3660100000000001E-4</c:v>
+                  <c:v>4.23592E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3290700000000002E-4</c:v>
+                  <c:v>4.2366599999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2928900000000002E-4</c:v>
+                  <c:v>4.2374200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2574699999999998E-4</c:v>
+                  <c:v>4.2382000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2227999999999998E-4</c:v>
+                  <c:v>4.2389999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.1990499999999999E-4</c:v>
+                  <c:v>4.2395500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1756599999999997E-4</c:v>
+                  <c:v>4.24012E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1415799999999998E-4</c:v>
+                  <c:v>4.2409299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1184600000000001E-4</c:v>
+                  <c:v>4.2415000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.08506E-4</c:v>
+                  <c:v>4.24234E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0622100000000002E-4</c:v>
+                  <c:v>4.24292E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.0294799999999999E-4</c:v>
+                  <c:v>4.2437700000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0069100000000001E-4</c:v>
+                  <c:v>4.2443599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.9847100000000002E-4</c:v>
+                  <c:v>4.2449500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.9525599999999998E-4</c:v>
+                  <c:v>4.2458200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9306299999999998E-4</c:v>
+                  <c:v>4.2464300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.8991599999999998E-4</c:v>
+                  <c:v>4.2473200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.8774999999999997E-4</c:v>
+                  <c:v>4.2479299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8563500000000001E-4</c:v>
+                  <c:v>4.24432E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.8349899999999999E-4</c:v>
+                  <c:v>4.2449399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.8040299999999998E-4</c:v>
+                  <c:v>4.24584E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.7830800000000001E-4</c:v>
+                  <c:v>4.2422399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7619400000000001E-4</c:v>
+                  <c:v>4.2428599999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.7412900000000002E-4</c:v>
+                  <c:v>4.2392699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7108200000000002E-4</c:v>
+                  <c:v>4.2401800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6898999999999998E-4</c:v>
+                  <c:v>4.2408099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.6694499999999999E-4</c:v>
+                  <c:v>4.2372199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.6488299999999999E-4</c:v>
+                  <c:v>4.23785E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.6188699999999998E-4</c:v>
+                  <c:v>4.2387800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.5986299999999999E-4</c:v>
+                  <c:v>4.2351899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.57822E-4</c:v>
+                  <c:v>4.2358300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5582699999999997E-4</c:v>
+                  <c:v>4.2322600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.5288200000000001E-4</c:v>
+                  <c:v>4.2332000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5086299999999999E-4</c:v>
+                  <c:v>4.2338399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.4888800000000001E-4</c:v>
+                  <c:v>4.2302699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.4689900000000002E-4</c:v>
+                  <c:v>4.2309199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.44004E-4</c:v>
+                  <c:v>4.2318700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.4205099999999999E-4</c:v>
+                  <c:v>4.2283099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.4008300000000001E-4</c:v>
+                  <c:v>4.22897E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.3815800000000001E-4</c:v>
+                  <c:v>4.2254100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.35314E-4</c:v>
+                  <c:v>4.2263700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.3336799999999999E-4</c:v>
+                  <c:v>4.2270299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.3146399999999999E-4</c:v>
+                  <c:v>4.2234800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.2867800000000001E-4</c:v>
+                  <c:v>4.2244499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.2675500000000001E-4</c:v>
+                  <c:v>4.2251200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.24871E-4</c:v>
+                  <c:v>4.2215700000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.2297699999999999E-4</c:v>
+                  <c:v>4.2222500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.2112299999999999E-4</c:v>
+                  <c:v>4.2187099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.1837899999999999E-4</c:v>
+                  <c:v>4.2196999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.1650700000000001E-4</c:v>
+                  <c:v>4.22038E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.14673E-4</c:v>
+                  <c:v>4.2168400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.11988E-4</c:v>
+                  <c:v>4.2178399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1013800000000001E-4</c:v>
+                  <c:v>4.2185300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0832399999999999E-4</c:v>
+                  <c:v>4.215E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.0650399999999999E-4</c:v>
+                  <c:v>4.2156899999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0472000000000001E-4</c:v>
+                  <c:v>4.2121699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.02077E-4</c:v>
+                  <c:v>4.2131799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.00278E-4</c:v>
+                  <c:v>4.2138799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.98514E-4</c:v>
+                  <c:v>4.2103599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9593E-4</c:v>
+                  <c:v>4.21138E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.94153E-4</c:v>
+                  <c:v>4.2120900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.9241000000000001E-4</c:v>
+                  <c:v>4.2085699999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.90664E-4</c:v>
+                  <c:v>4.2092900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.88949E-4</c:v>
+                  <c:v>4.2057799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8640700000000001E-4</c:v>
+                  <c:v>4.20682E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.84682E-4</c:v>
+                  <c:v>4.2075300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8298899999999999E-4</c:v>
+                  <c:v>4.2040300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8050499999999999E-4</c:v>
+                  <c:v>4.2050799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.7880199999999999E-4</c:v>
+                  <c:v>4.2058100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.7712899999999999E-4</c:v>
+                  <c:v>4.2023100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.75456E-4</c:v>
+                  <c:v>4.2030400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.73812E-4</c:v>
+                  <c:v>4.1995499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.7137000000000001E-4</c:v>
+                  <c:v>4.2006099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.6971900000000001E-4</c:v>
+                  <c:v>4.2013399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.6809600000000001E-4</c:v>
+                  <c:v>4.1978599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.65713E-4</c:v>
+                  <c:v>4.19893E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.6408300000000001E-4</c:v>
+                  <c:v>4.1996800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.6248099999999999E-4</c:v>
+                  <c:v>4.1961900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.6015699999999999E-4</c:v>
+                  <c:v>4.1972799999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.5854899999999999E-4</c:v>
+                  <c:v>4.1980299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.5696699999999999E-4</c:v>
+                  <c:v>4.19456E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.55389E-4</c:v>
+                  <c:v>4.19531E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.53836E-4</c:v>
+                  <c:v>4.1918400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.5155400000000001E-4</c:v>
+                  <c:v>4.1929399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.5002700000000001E-4</c:v>
+                  <c:v>4.1894800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.48465E-4</c:v>
+                  <c:v>4.1902399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.4624199999999999E-4</c:v>
+                  <c:v>4.1913499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.4473599999999999E-4</c:v>
+                  <c:v>4.1879E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.43196E-4</c:v>
+                  <c:v>4.1886600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.41719E-4</c:v>
+                  <c:v>4.1852100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.4020800000000001E-4</c:v>
+                  <c:v>4.1859800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3802700000000001E-4</c:v>
+                  <c:v>4.1870999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.3657099999999999E-4</c:v>
+                  <c:v>4.1836600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3508199999999999E-4</c:v>
+                  <c:v>4.1844399999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.3296E-4</c:v>
+                  <c:v>4.1855700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.31524E-4</c:v>
+                  <c:v>4.1821400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.3005699999999999E-4</c:v>
+                  <c:v>4.1829199999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.28651E-4</c:v>
+                  <c:v>4.17948E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.2721400000000001E-4</c:v>
+                  <c:v>4.1802699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.25134E-4</c:v>
+                  <c:v>4.1814200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.2374799999999999E-4</c:v>
+                  <c:v>4.1779900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.2233200000000001E-4</c:v>
+                  <c:v>4.1787900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.2031099999999999E-4</c:v>
+                  <c:v>4.1799500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.1894499999999999E-4</c:v>
+                  <c:v>4.1765299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.17552E-4</c:v>
+                  <c:v>4.1773299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.16216E-4</c:v>
+                  <c:v>4.1739100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.14852E-4</c:v>
+                  <c:v>4.1747199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.12873E-4</c:v>
+                  <c:v>4.1758900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.11557E-4</c:v>
+                  <c:v>4.1724799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.10215E-4</c:v>
+                  <c:v>4.1732999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.0829500000000001E-4</c:v>
+                  <c:v>4.1744799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.06999E-4</c:v>
+                  <c:v>4.1710799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.05679E-4</c:v>
+                  <c:v>4.1718999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.04413E-4</c:v>
+                  <c:v>4.1685E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.03123E-4</c:v>
+                  <c:v>4.1693300000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.01245E-4</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="0.00E+00">
-                  <c:v>9.9999000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="0.00E+00">
-                  <c:v>9.8730899999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="0.00E+00">
-                  <c:v>9.6911100000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="0.00E+00">
-                  <c:v>9.5686099999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="0.00E+00">
-                  <c:v>9.4439500000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="144" formatCode="0.00E+00">
-                  <c:v>9.3243600000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="145" formatCode="0.00E+00">
-                  <c:v>9.1474199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="0.00E+00">
-                  <c:v>9.0249399999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="147" formatCode="0.00E+00">
-                  <c:v>8.9073999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="148" formatCode="0.00E+00">
-                  <c:v>8.7879299999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="149" formatCode="0.00E+00">
-                  <c:v>8.6160299999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="150" formatCode="0.00E+00">
-                  <c:v>8.5005600000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="151" formatCode="0.00E+00">
-                  <c:v>8.3832500000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="152" formatCode="0.00E+00">
-                  <c:v>8.2706800000000006E-5</c:v>
-                </c:pt>
-                <c:pt idx="153" formatCode="0.00E+00">
-                  <c:v>8.10383E-5</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="0.00E+00">
-                  <c:v>7.9886899999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="155" formatCode="0.00E+00">
-                  <c:v>7.8781800000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="0.00E+00">
-                  <c:v>7.7665100000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="157" formatCode="0.00E+00">
-                  <c:v>7.6031499999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="158" formatCode="0.00E+00">
-                  <c:v>7.49319E-5</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="0.00E+00">
-                  <c:v>7.3817699999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="160" formatCode="0.00E+00">
-                  <c:v>7.2747699999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="161" formatCode="0.00E+00">
-                  <c:v>7.1165899999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="162" formatCode="0.00E+00">
-                  <c:v>7.0074199999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="163" formatCode="0.00E+00">
-                  <c:v>6.9025599999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="164" formatCode="0.00E+00">
-                  <c:v>6.7964600000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="165" formatCode="0.00E+00">
-                  <c:v>6.6434599999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="166" formatCode="0.00E+00">
-                  <c:v>6.54075E-5</c:v>
-                </c:pt>
-                <c:pt idx="167" formatCode="0.00E+00">
-                  <c:v>6.4369000000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="168" formatCode="0.00E+00">
-                  <c:v>6.2898900000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="169" formatCode="0.00E+00">
-                  <c:v>6.1893300000000006E-5</c:v>
-                </c:pt>
-                <c:pt idx="170" formatCode="0.00E+00">
-                  <c:v>6.0877300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="171" formatCode="0.00E+00">
-                  <c:v>5.9901300000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="172" formatCode="0.00E+00">
-                  <c:v>5.8916100000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="173" formatCode="0.00E+00">
-                  <c:v>5.7489499999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="174" formatCode="0.00E+00">
-                  <c:v>5.6535E-5</c:v>
-                </c:pt>
-                <c:pt idx="175" formatCode="0.00E+00">
-                  <c:v>5.5572200000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="176" formatCode="0.00E+00">
-                  <c:v>5.4205600000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="177" formatCode="0.00E+00">
-                  <c:v>5.3272500000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="178" formatCode="0.00E+00">
-                  <c:v>5.23323E-5</c:v>
-                </c:pt>
-                <c:pt idx="179" formatCode="0.00E+00">
-                  <c:v>5.1428799999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="180" formatCode="0.00E+00">
-                  <c:v>5.0114000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="181" formatCode="0.00E+00">
-                  <c:v>4.9196300000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="182" formatCode="0.00E+00">
-                  <c:v>4.8314299999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="183" formatCode="0.00E+00">
-                  <c:v>4.7427399999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="184" formatCode="0.00E+00">
-                  <c:v>4.6164200000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="185" formatCode="0.00E+00">
-                  <c:v>4.5303699999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="186" formatCode="0.00E+00">
-                  <c:v>4.44393E-5</c:v>
-                </c:pt>
-                <c:pt idx="187" formatCode="0.00E+00">
-                  <c:v>4.3608300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="188" formatCode="0.00E+00">
-                  <c:v>4.2397000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="189" formatCode="0.00E+00">
-                  <c:v>4.1555099999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="190" formatCode="0.00E+00">
-                  <c:v>4.0745599999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="191" formatCode="0.00E+00">
-                  <c:v>3.9934400000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="192" formatCode="0.00E+00">
-                  <c:v>3.87748E-5</c:v>
-                </c:pt>
-                <c:pt idx="193" formatCode="0.00E+00">
-                  <c:v>3.79867E-5</c:v>
-                </c:pt>
-                <c:pt idx="194" formatCode="0.00E+00">
-                  <c:v>3.7198099999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="195" formatCode="0.00E+00">
-                  <c:v>3.6439600000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="196" formatCode="0.00E+00">
-                  <c:v>3.5331799999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="197" formatCode="0.00E+00">
-                  <c:v>3.45657E-5</c:v>
-                </c:pt>
-                <c:pt idx="198" formatCode="0.00E+00">
-                  <c:v>3.3828699999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="199" formatCode="0.00E+00">
-                  <c:v>3.3093299999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="200" formatCode="0.00E+00">
-                  <c:v>3.2037199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="201" formatCode="0.00E+00">
-                  <c:v>3.1321700000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="202" formatCode="0.00E+00">
-                  <c:v>3.0608799999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="203" formatCode="0.00E+00">
-                  <c:v>2.9922900000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="204" formatCode="0.00E+00">
-                  <c:v>2.8918600000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="205" formatCode="0.00E+00">
-                  <c:v>2.8228199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="206" formatCode="0.00E+00">
-                  <c:v>2.7563799999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="207" formatCode="0.00E+00">
-                  <c:v>2.6904199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="208" formatCode="0.00E+00">
-                  <c:v>2.59515E-5</c:v>
-                </c:pt>
-                <c:pt idx="209" formatCode="0.00E+00">
-                  <c:v>2.53085E-5</c:v>
-                </c:pt>
-                <c:pt idx="210" formatCode="0.00E+00">
-                  <c:v>2.4671399999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="211" formatCode="0.00E+00">
-                  <c:v>2.4057999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="212" formatCode="0.00E+00">
-                  <c:v>2.3157199999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="213" formatCode="0.00E+00">
-                  <c:v>2.25427E-5</c:v>
-                </c:pt>
-                <c:pt idx="214" formatCode="0.00E+00">
-                  <c:v>2.19507E-5</c:v>
-                </c:pt>
-                <c:pt idx="215" formatCode="0.00E+00">
-                  <c:v>2.1109799999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="216" formatCode="0.00E+00">
-                  <c:v>2.0517799999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="217" formatCode="0.00E+00">
-                  <c:v>1.9947300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="218" formatCode="0.00E+00">
-                  <c:v>1.9386E-5</c:v>
-                </c:pt>
-                <c:pt idx="219" formatCode="0.00E+00">
-                  <c:v>1.88451E-5</c:v>
-                </c:pt>
-                <c:pt idx="220" formatCode="0.00E+00">
-                  <c:v>1.80478E-5</c:v>
-                </c:pt>
-                <c:pt idx="221" formatCode="0.00E+00">
-                  <c:v>1.7509000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="222" formatCode="0.00E+00">
-                  <c:v>1.6989500000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="223" formatCode="0.00E+00">
-                  <c:v>1.62522E-5</c:v>
-                </c:pt>
-                <c:pt idx="224" formatCode="0.00E+00">
-                  <c:v>1.57359E-5</c:v>
-                </c:pt>
-                <c:pt idx="225" formatCode="0.00E+00">
-                  <c:v>1.52379E-5</c:v>
-                </c:pt>
-                <c:pt idx="226" formatCode="0.00E+00">
-                  <c:v>1.47524E-5</c:v>
-                </c:pt>
-                <c:pt idx="227" formatCode="0.00E+00">
-                  <c:v>1.40667E-5</c:v>
-                </c:pt>
-                <c:pt idx="228" formatCode="0.00E+00">
-                  <c:v>1.3590200000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="229" formatCode="0.00E+00">
-                  <c:v>1.31272E-5</c:v>
-                </c:pt>
-                <c:pt idx="230" formatCode="0.00E+00">
-                  <c:v>1.26803E-5</c:v>
-                </c:pt>
-                <c:pt idx="231" formatCode="0.00E+00">
-                  <c:v>1.20464E-5</c:v>
-                </c:pt>
-                <c:pt idx="232" formatCode="0.00E+00">
-                  <c:v>1.16059E-5</c:v>
-                </c:pt>
-                <c:pt idx="233" formatCode="0.00E+00">
-                  <c:v>1.1180400000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="234" formatCode="0.00E+00">
-                  <c:v>1.07707E-5</c:v>
-                </c:pt>
-                <c:pt idx="235" formatCode="0.00E+00">
-                  <c:v>1.0188500000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="236" formatCode="0.00E+00">
-                  <c:v>9.7845299999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="237" formatCode="0.00E+00">
-                  <c:v>9.3973099999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="238" formatCode="0.00E+00">
-                  <c:v>9.0228999999999996E-6</c:v>
-                </c:pt>
-                <c:pt idx="239" formatCode="0.00E+00">
-                  <c:v>8.4925300000000008E-6</c:v>
-                </c:pt>
-                <c:pt idx="240" formatCode="0.00E+00">
-                  <c:v>8.1278200000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="241" formatCode="0.00E+00">
-                  <c:v>7.7748799999999993E-6</c:v>
-                </c:pt>
-                <c:pt idx="242" formatCode="0.00E+00">
-                  <c:v>7.4409199999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="243" formatCode="0.00E+00">
-                  <c:v>6.9622400000000003E-6</c:v>
-                </c:pt>
-                <c:pt idx="244" formatCode="0.00E+00">
-                  <c:v>6.6307699999999997E-6</c:v>
-                </c:pt>
-                <c:pt idx="245" formatCode="0.00E+00">
-                  <c:v>6.3193200000000003E-6</c:v>
-                </c:pt>
-                <c:pt idx="246" formatCode="0.00E+00">
-                  <c:v>6.0174299999999997E-6</c:v>
-                </c:pt>
-                <c:pt idx="247" formatCode="0.00E+00">
-                  <c:v>5.5905600000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="248" formatCode="0.00E+00">
-                  <c:v>5.3016299999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="249" formatCode="0.00E+00">
-                  <c:v>5.0212100000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="250" formatCode="0.00E+00">
-                  <c:v>4.6542600000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="251" formatCode="0.00E+00">
-                  <c:v>4.3878499999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="252" formatCode="0.00E+00">
-                  <c:v>4.1289000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="253" formatCode="0.00E+00">
-                  <c:v>3.8932299999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="254" formatCode="0.00E+00">
-                  <c:v>3.6638599999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="255" formatCode="0.00E+00">
-                  <c:v>3.3404900000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="256" formatCode="0.00E+00">
-                  <c:v>3.1273399999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="257" formatCode="0.00E+00">
-                  <c:v>2.9194400000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="258" formatCode="0.00E+00">
-                  <c:v>2.6559899999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="259" formatCode="0.00E+00">
-                  <c:v>2.4653599999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="260" formatCode="0.00E+00">
-                  <c:v>2.27892E-6</c:v>
-                </c:pt>
-                <c:pt idx="261" formatCode="0.00E+00">
-                  <c:v>2.1190399999999998E-6</c:v>
-                </c:pt>
-                <c:pt idx="262" formatCode="0.00E+00">
-                  <c:v>1.9621799999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="263" formatCode="0.00E+00">
-                  <c:v>1.7423199999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="264" formatCode="0.00E+00">
-                  <c:v>1.60495E-6</c:v>
-                </c:pt>
-                <c:pt idx="265" formatCode="0.00E+00">
-                  <c:v>1.46956E-6</c:v>
-                </c:pt>
-                <c:pt idx="266" formatCode="0.00E+00">
-                  <c:v>1.30962E-6</c:v>
-                </c:pt>
-                <c:pt idx="267" formatCode="0.00E+00">
-                  <c:v>1.19477E-6</c:v>
-                </c:pt>
-                <c:pt idx="268" formatCode="0.00E+00">
-                  <c:v>1.08085E-6</c:v>
-                </c:pt>
-                <c:pt idx="269" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="270" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="271" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="272" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="273" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="274" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="275" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="276" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="277" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="278" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="279" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="280" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="281" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="282" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="283" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="284" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="285" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="286" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="287" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="288" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="289" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="290" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="291" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="292" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="293" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="294" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="295" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="296" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="297" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="298" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="299" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="300" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="301" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="302" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="303" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="304" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="305" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="306" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="307" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="308" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="309" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="310" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="311" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="312" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="313" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="314" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="315" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="316" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="317" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="318" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="319" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="320" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="321" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="322" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="323" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="324" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="325" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="326" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="327" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="328" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="329" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="330" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="331" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="332" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="333" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="334" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="335" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="336" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="337" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="338" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="339" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="340" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="341" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="342" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="343" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="344" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="345" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="346" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="347" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="348" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="349" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="350" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="351" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="352" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="353" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="354" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="355" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="356" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="357" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="358" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="359" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="360" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="361" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="362" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="363" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="364" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="365" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="366" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="367" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="368" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="369" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="370" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="371" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="372" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="373" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="374" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="375" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="376" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="377" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="378" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="379" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="380" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="381" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="382" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="383" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="384" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="385" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="386" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="387" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="388" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="389" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="390" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="391" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="392" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="393" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="394" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="395" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="396" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="397" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="398" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="399" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="400" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="401" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="402" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="403" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="404" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="405" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="406" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="407" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="408" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="409" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="410" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="411" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="412" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="413" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="414" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="415" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="416" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="417" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="418" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="419" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="420" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="421" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="422" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="423" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="424" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="425" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="426" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="427" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="428" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="429" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="430" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="431" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="432" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="433" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="434" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="435" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="436" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="437" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="438" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="439" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="440" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="441" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="442" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="443" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="444" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="445" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="446" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="447" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="448" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="449" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="450" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="451" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="452" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="453" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="454" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="455" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="456" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="457" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="458" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="459" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="460" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="461" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="462" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="463" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="464" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="465" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="466" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="467" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="468" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="469" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="470" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="471" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="472" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="473" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="474" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="475" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="476" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="477" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="478" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="479" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="480" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="481" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="482" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="483" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="484" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="485" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="486" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="487" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="488" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="489" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="490" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="491" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="492" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="493" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="494" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="495" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="496" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="497" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="498" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
-                </c:pt>
-                <c:pt idx="499" formatCode="0.00E+00">
-                  <c:v>9.9674699999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="500" formatCode="0.00E+00">
-                  <c:v>1.00205E-6</c:v>
+                  <c:v>4.1705199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.1671300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.1679599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.1691699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.1657800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.16662E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.16324E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.1644599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.1653000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.1619299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.16278E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.1640099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.1606400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.1614999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.1581399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.15938E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.1602399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.1568800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.1577599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.1589899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.1556099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.1564499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.15308E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.1543200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.1551699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.1517999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.1526500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4.1539100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.1505500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.1514099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.1526800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.1493200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.1501900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.14683E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.1477100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.1489900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.1456399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.1465200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.14782E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4.1444799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.1453700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.14203E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4.1433400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.1442300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.1409099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.1418099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.1431299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.13981E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.1407100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.1373899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.1387300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.13964E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.1363299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.13725E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.1385999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.1352899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4.1362099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.1329200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.1342799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.1352100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.13192E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.1328499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.1342299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.1309400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.1318800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.1286000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.12999E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.1309400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.1276599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.1286200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.1300200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.1267499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.1277099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.1244500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.1258599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.1268300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.12357E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.1259700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.1227199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.1237000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.1204600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.1218999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.1228800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.1196400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.1210999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.1220899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.1188599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.1198600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.1213199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.1180899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.1190999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.1158800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.1173599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.1183699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.1151500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.1161700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.1176600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.1144500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.1154799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.1122699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.1137800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.11481E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.1116100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.1126500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.11416E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.1109699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.1120200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.1088300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.1103599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.1114100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.1082300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.1097799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.11083E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4.1076599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4.1087199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.1055500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.1071099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4.1081699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.1050099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.10658E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>4.1076599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4.1044999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>4.1055800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>4.10243E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4.1040100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4.1050999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>4.1019600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.1035500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>4.1046399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.1015099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>4.0983800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>4.1026100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>4.0983800000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,11 +3613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56183616"/>
-        <c:axId val="56183040"/>
+        <c:axId val="45370176"/>
+        <c:axId val="45369600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56183616"/>
+        <c:axId val="45370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,12 +3627,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56183040"/>
+        <c:crossAx val="45369600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56183040"/>
+        <c:axId val="45369600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,7 +3643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56183616"/>
+        <c:crossAx val="45370176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3990,7 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -4001,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4.42509E-4</v>
+        <v>4.2249500000000002E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4009,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.3707000000000001E-4</v>
+        <v>4.2251900000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4017,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.3170600000000002E-4</v>
+        <v>4.22545E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4025,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.2641800000000002E-4</v>
+        <v>4.2257299999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4033,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.2120699999999999E-4</v>
+        <v>4.2260300000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4041,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.1607100000000001E-4</v>
+        <v>4.2263599999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4049,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.1101100000000003E-4</v>
+        <v>4.2266999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4057,7 +4056,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.0602699999999999E-4</v>
+        <v>4.2270700000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4065,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.0111900000000002E-4</v>
+        <v>4.2274600000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4073,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.9628599999999998E-4</v>
+        <v>4.2278700000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4081,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.9153000000000001E-4</v>
+        <v>4.2283099999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4089,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.8684899999999998E-4</v>
+        <v>4.2287600000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4097,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.8224400000000001E-4</v>
+        <v>4.2292400000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4105,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.77716E-4</v>
+        <v>4.2297399999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4113,7 +4112,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.7326299999999998E-4</v>
+        <v>4.2302600000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4121,7 +4120,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.6888600000000002E-4</v>
+        <v>4.2307999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4129,7 +4128,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.6458500000000001E-4</v>
+        <v>4.23136E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4137,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.6035899999999998E-4</v>
+        <v>4.2319500000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4145,7 +4144,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.5620999999999998E-4</v>
+        <v>4.2325599999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4153,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.5213699999999998E-4</v>
+        <v>4.2331899999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4161,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.4813900000000002E-4</v>
+        <v>4.2338399999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4169,7 +4168,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.4421700000000001E-4</v>
+        <v>4.2345099999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4177,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.4037100000000001E-4</v>
+        <v>4.2352000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4185,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3.3660100000000001E-4</v>
+        <v>4.23592E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4193,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.3290700000000002E-4</v>
+        <v>4.2366599999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4201,7 +4200,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.2928900000000002E-4</v>
+        <v>4.2374200000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4209,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.2574699999999998E-4</v>
+        <v>4.2382000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4217,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3.2227999999999998E-4</v>
+        <v>4.2389999999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4225,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3.1990499999999999E-4</v>
+        <v>4.2395500000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4233,7 +4232,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3.1756599999999997E-4</v>
+        <v>4.24012E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4241,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3.1415799999999998E-4</v>
+        <v>4.2409299999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4249,7 +4248,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3.1184600000000001E-4</v>
+        <v>4.2415000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4257,7 +4256,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3.08506E-4</v>
+        <v>4.24234E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4265,7 +4264,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3.0622100000000002E-4</v>
+        <v>4.24292E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4273,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3.0294799999999999E-4</v>
+        <v>4.2437700000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4281,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3.0069100000000001E-4</v>
+        <v>4.2443599999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4289,7 +4288,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.9847100000000002E-4</v>
+        <v>4.2449500000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4297,7 +4296,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2.9525599999999998E-4</v>
+        <v>4.2458200000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4305,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.9306299999999998E-4</v>
+        <v>4.2464300000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4313,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2.8991599999999998E-4</v>
+        <v>4.2473200000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4321,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.8774999999999997E-4</v>
+        <v>4.2479299999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4329,7 +4328,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2.8563500000000001E-4</v>
+        <v>4.24432E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4337,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2.8349899999999999E-4</v>
+        <v>4.2449399999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4345,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2.8040299999999998E-4</v>
+        <v>4.24584E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4353,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2.7830800000000001E-4</v>
+        <v>4.2422399999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4361,7 +4360,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2.7619400000000001E-4</v>
+        <v>4.2428599999999997E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4369,7 +4368,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.7412900000000002E-4</v>
+        <v>4.2392699999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4377,7 +4376,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2.7108200000000002E-4</v>
+        <v>4.2401800000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4385,7 +4384,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2.6898999999999998E-4</v>
+        <v>4.2408099999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4393,7 +4392,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.6694499999999999E-4</v>
+        <v>4.2372199999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4401,7 +4400,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2.6488299999999999E-4</v>
+        <v>4.23785E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4409,7 +4408,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2.6188699999999998E-4</v>
+        <v>4.2387800000000003E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4417,7 +4416,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2.5986299999999999E-4</v>
+        <v>4.2351899999999998E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4425,7 +4424,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.57822E-4</v>
+        <v>4.2358300000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4433,7 +4432,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2.5582699999999997E-4</v>
+        <v>4.2322600000000002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4441,7 +4440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.5288200000000001E-4</v>
+        <v>4.2332000000000002E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4449,7 +4448,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2.5086299999999999E-4</v>
+        <v>4.2338399999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4457,7 +4456,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2.4888800000000001E-4</v>
+        <v>4.2302699999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4465,7 +4464,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2.4689900000000002E-4</v>
+        <v>4.2309199999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4473,7 +4472,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2.44004E-4</v>
+        <v>4.2318700000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4481,7 +4480,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2.4205099999999999E-4</v>
+        <v>4.2283099999999997E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4489,7 +4488,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2.4008300000000001E-4</v>
+        <v>4.22897E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4497,7 +4496,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2.3815800000000001E-4</v>
+        <v>4.2254100000000003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4505,7 +4504,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.35314E-4</v>
+        <v>4.2263700000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4513,7 +4512,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.3336799999999999E-4</v>
+        <v>4.2270299999999997E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4521,7 +4520,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2.3146399999999999E-4</v>
+        <v>4.2234800000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4529,7 +4528,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2.2867800000000001E-4</v>
+        <v>4.2244499999999997E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4537,7 +4536,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2.2675500000000001E-4</v>
+        <v>4.2251200000000003E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4545,7 +4544,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2.24871E-4</v>
+        <v>4.2215700000000002E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4553,7 +4552,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2.2297699999999999E-4</v>
+        <v>4.2222500000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4561,7 +4560,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2.2112299999999999E-4</v>
+        <v>4.2187099999999998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4569,7 +4568,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2.1837899999999999E-4</v>
+        <v>4.2196999999999998E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4577,7 +4576,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2.1650700000000001E-4</v>
+        <v>4.22038E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4585,7 +4584,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2.14673E-4</v>
+        <v>4.2168400000000002E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4593,7 +4592,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2.11988E-4</v>
+        <v>4.2178399999999998E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4601,7 +4600,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2.1013800000000001E-4</v>
+        <v>4.2185300000000002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4609,7 +4608,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2.0832399999999999E-4</v>
+        <v>4.215E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4617,7 +4616,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2.0650399999999999E-4</v>
+        <v>4.2156899999999997E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4625,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.0472000000000001E-4</v>
+        <v>4.2121699999999998E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4633,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2.02077E-4</v>
+        <v>4.2131799999999997E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4641,7 +4640,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2.00278E-4</v>
+        <v>4.2138799999999997E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4649,7 +4648,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.98514E-4</v>
+        <v>4.2103599999999998E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4657,7 +4656,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.9593E-4</v>
+        <v>4.21138E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4665,7 +4664,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.94153E-4</v>
+        <v>4.2120900000000003E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4673,7 +4672,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.9241000000000001E-4</v>
+        <v>4.2085699999999997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4681,7 +4680,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1.90664E-4</v>
+        <v>4.2092900000000003E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4689,7 +4688,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.88949E-4</v>
+        <v>4.2057799999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4697,7 +4696,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.8640700000000001E-4</v>
+        <v>4.20682E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4705,7 +4704,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1.84682E-4</v>
+        <v>4.2075300000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4713,7 +4712,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1.8298899999999999E-4</v>
+        <v>4.2040300000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4721,7 +4720,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.8050499999999999E-4</v>
+        <v>4.2050799999999999E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4729,7 +4728,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.7880199999999999E-4</v>
+        <v>4.2058100000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4737,7 +4736,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.7712899999999999E-4</v>
+        <v>4.2023100000000001E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4745,7 +4744,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.75456E-4</v>
+        <v>4.2030400000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4753,7 +4752,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.73812E-4</v>
+        <v>4.1995499999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4761,7 +4760,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.7137000000000001E-4</v>
+        <v>4.2006099999999998E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4769,7 +4768,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.6971900000000001E-4</v>
+        <v>4.2013399999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4777,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.6809600000000001E-4</v>
+        <v>4.1978599999999998E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4785,7 +4784,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.65713E-4</v>
+        <v>4.19893E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4793,7 +4792,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.6408300000000001E-4</v>
+        <v>4.1996800000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4801,7 +4800,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.6248099999999999E-4</v>
+        <v>4.1961900000000003E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4809,7 +4808,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.6015699999999999E-4</v>
+        <v>4.1972799999999998E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4817,7 +4816,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.5854899999999999E-4</v>
+        <v>4.1980299999999998E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4825,7 +4824,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.5696699999999999E-4</v>
+        <v>4.19456E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4833,7 +4832,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.55389E-4</v>
+        <v>4.19531E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4841,7 +4840,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.53836E-4</v>
+        <v>4.1918400000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4849,7 +4848,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.5155400000000001E-4</v>
+        <v>4.1929399999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4857,7 +4856,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.5002700000000001E-4</v>
+        <v>4.1894800000000003E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4865,7 +4864,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.48465E-4</v>
+        <v>4.1902399999999999E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4873,7 +4872,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.4624199999999999E-4</v>
+        <v>4.1913499999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4881,7 +4880,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.4473599999999999E-4</v>
+        <v>4.1879E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4889,7 +4888,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.43196E-4</v>
+        <v>4.1886600000000003E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4897,7 +4896,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.41719E-4</v>
+        <v>4.1852100000000003E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4905,7 +4904,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.4020800000000001E-4</v>
+        <v>4.1859800000000003E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4913,7 +4912,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.3802700000000001E-4</v>
+        <v>4.1870999999999998E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4921,7 +4920,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.3657099999999999E-4</v>
+        <v>4.1836600000000002E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4929,7 +4928,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.3508199999999999E-4</v>
+        <v>4.1844399999999997E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4937,7 +4936,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.3296E-4</v>
+        <v>4.1855700000000003E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4945,7 +4944,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.31524E-4</v>
+        <v>4.1821400000000002E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4953,7 +4952,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.3005699999999999E-4</v>
+        <v>4.1829199999999997E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4961,7 +4960,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.28651E-4</v>
+        <v>4.17948E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4969,7 +4968,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.2721400000000001E-4</v>
+        <v>4.1802699999999998E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4977,7 +4976,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.25134E-4</v>
+        <v>4.1814200000000003E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4985,7 +4984,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.2374799999999999E-4</v>
+        <v>4.1779900000000002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4993,7 +4992,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.2233200000000001E-4</v>
+        <v>4.1787900000000003E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5001,7 +5000,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.2031099999999999E-4</v>
+        <v>4.1799500000000003E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -5009,7 +5008,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.1894499999999999E-4</v>
+        <v>4.1765299999999998E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5017,7 +5016,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.17552E-4</v>
+        <v>4.1773299999999999E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5025,7 +5024,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.16216E-4</v>
+        <v>4.1739100000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5033,7 +5032,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.14852E-4</v>
+        <v>4.1747199999999998E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -5041,7 +5040,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1.12873E-4</v>
+        <v>4.1758900000000002E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -5049,7 +5048,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1.11557E-4</v>
+        <v>4.1724799999999999E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -5057,7 +5056,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.10215E-4</v>
+        <v>4.1732999999999999E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5065,7 +5064,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1.0829500000000001E-4</v>
+        <v>4.1744799999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -5073,7 +5072,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.06999E-4</v>
+        <v>4.1710799999999999E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5081,7 +5080,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.05679E-4</v>
+        <v>4.1718999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5089,7 +5088,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1.04413E-4</v>
+        <v>4.1685E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5097,7 +5096,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1.03123E-4</v>
+        <v>4.1693300000000003E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5105,2903 +5104,2903 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.01245E-4</v>
+        <v>4.1705199999999998E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="1">
-        <v>9.9999000000000003E-5</v>
+      <c r="B140">
+        <v>4.1671300000000001E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="1">
-        <v>9.8730899999999994E-5</v>
+      <c r="B141">
+        <v>4.1679599999999997E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="1">
-        <v>9.6911100000000001E-5</v>
+      <c r="B142">
+        <v>4.1691699999999998E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="1">
-        <v>9.5686099999999999E-5</v>
+      <c r="B143">
+        <v>4.1657800000000002E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="1">
-        <v>9.4439500000000003E-5</v>
+      <c r="B144">
+        <v>4.16662E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="1">
-        <v>9.3243600000000003E-5</v>
+      <c r="B145">
+        <v>4.16324E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="1">
-        <v>9.1474199999999999E-5</v>
+      <c r="B146">
+        <v>4.1644599999999997E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="1">
-        <v>9.0249399999999997E-5</v>
+      <c r="B147">
+        <v>4.1653000000000003E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="1">
-        <v>8.9073999999999995E-5</v>
+      <c r="B148">
+        <v>4.1619299999999998E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="1">
-        <v>8.7879299999999997E-5</v>
+      <c r="B149">
+        <v>4.16278E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="1">
-        <v>8.6160299999999996E-5</v>
+      <c r="B150">
+        <v>4.1640099999999999E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="1">
-        <v>8.5005600000000005E-5</v>
+      <c r="B151">
+        <v>4.1606400000000002E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="1">
-        <v>8.3832500000000001E-5</v>
+      <c r="B152">
+        <v>4.1614999999999999E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="1">
-        <v>8.2706800000000006E-5</v>
+      <c r="B153">
+        <v>4.1581399999999998E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="1">
-        <v>8.10383E-5</v>
+      <c r="B154">
+        <v>4.15938E-2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="1">
-        <v>7.9886899999999996E-5</v>
+      <c r="B155">
+        <v>4.1602399999999998E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="1">
-        <v>7.8781800000000005E-5</v>
+      <c r="B156">
+        <v>4.1568800000000003E-2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="1">
-        <v>7.7665100000000003E-5</v>
+      <c r="B157">
+        <v>4.1577599999999999E-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="1">
-        <v>7.6031499999999999E-5</v>
+      <c r="B158">
+        <v>4.1589899999999999E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="1">
-        <v>7.49319E-5</v>
+      <c r="B159">
+        <v>4.1556099999999999E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="1">
-        <v>7.3817699999999996E-5</v>
+      <c r="B160">
+        <v>4.1564499999999997E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="1">
-        <v>7.2747699999999995E-5</v>
+      <c r="B161">
+        <v>4.15308E-2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="1">
-        <v>7.1165899999999996E-5</v>
+      <c r="B162">
+        <v>4.1543200000000002E-2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="1">
-        <v>7.0074199999999994E-5</v>
+      <c r="B163">
+        <v>4.1551699999999997E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="1">
-        <v>6.9025599999999999E-5</v>
+      <c r="B164">
+        <v>4.1517999999999999E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="1">
-        <v>6.7964600000000003E-5</v>
+      <c r="B165">
+        <v>4.1526500000000001E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="1">
-        <v>6.6434599999999996E-5</v>
+      <c r="B166">
+        <v>4.1539100000000002E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="1">
-        <v>6.54075E-5</v>
+      <c r="B167">
+        <v>4.1505500000000001E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="1">
-        <v>6.4369000000000007E-5</v>
+      <c r="B168">
+        <v>4.1514099999999998E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="1">
-        <v>6.2898900000000002E-5</v>
+      <c r="B169">
+        <v>4.1526800000000003E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="1">
-        <v>6.1893300000000006E-5</v>
+      <c r="B170">
+        <v>4.1493200000000001E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="1">
-        <v>6.0877300000000001E-5</v>
+      <c r="B171">
+        <v>4.1501900000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="1">
-        <v>5.9901300000000002E-5</v>
+      <c r="B172">
+        <v>4.14683E-2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="1">
-        <v>5.8916100000000003E-5</v>
+      <c r="B173">
+        <v>4.1477100000000003E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="1">
-        <v>5.7489499999999999E-5</v>
+      <c r="B174">
+        <v>4.1489900000000003E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="1">
-        <v>5.6535E-5</v>
+      <c r="B175">
+        <v>4.1456399999999997E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="1">
-        <v>5.5572200000000003E-5</v>
+      <c r="B176">
+        <v>4.1465200000000001E-2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="1">
-        <v>5.4205600000000002E-5</v>
+      <c r="B177">
+        <v>4.14782E-2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="1">
-        <v>5.3272500000000002E-5</v>
+      <c r="B178">
+        <v>4.1444799999999997E-2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="1">
-        <v>5.23323E-5</v>
+      <c r="B179">
+        <v>4.1453700000000003E-2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="1">
-        <v>5.1428799999999998E-5</v>
+      <c r="B180">
+        <v>4.14203E-2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="1">
-        <v>5.0114000000000002E-5</v>
+      <c r="B181">
+        <v>4.1433400000000002E-2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="1">
-        <v>4.9196300000000002E-5</v>
+      <c r="B182">
+        <v>4.1442300000000001E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="1">
-        <v>4.8314299999999999E-5</v>
+      <c r="B183">
+        <v>4.1409099999999997E-2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="1">
-        <v>4.7427399999999999E-5</v>
+      <c r="B184">
+        <v>4.1418099999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="1">
-        <v>4.6164200000000001E-5</v>
+      <c r="B185">
+        <v>4.1431299999999997E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="1">
-        <v>4.5303699999999998E-5</v>
+      <c r="B186">
+        <v>4.13981E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="1">
-        <v>4.44393E-5</v>
+      <c r="B187">
+        <v>4.1407100000000002E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="1">
-        <v>4.3608300000000001E-5</v>
+      <c r="B188">
+        <v>4.1373899999999998E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="1">
-        <v>4.2397000000000001E-5</v>
+      <c r="B189">
+        <v>4.1387300000000002E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="1">
-        <v>4.1555099999999998E-5</v>
+      <c r="B190">
+        <v>4.13964E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="1">
-        <v>4.0745599999999998E-5</v>
+      <c r="B191">
+        <v>4.1363299999999999E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="1">
-        <v>3.9934400000000002E-5</v>
+      <c r="B192">
+        <v>4.13725E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="1">
-        <v>3.87748E-5</v>
+      <c r="B193">
+        <v>4.1385999999999999E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="1">
-        <v>3.79867E-5</v>
+      <c r="B194">
+        <v>4.1352899999999998E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="1">
-        <v>3.7198099999999999E-5</v>
+      <c r="B195">
+        <v>4.1362099999999999E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="1">
-        <v>3.6439600000000003E-5</v>
+      <c r="B196">
+        <v>4.1329200000000003E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="1">
-        <v>3.5331799999999999E-5</v>
+      <c r="B197">
+        <v>4.1342799999999999E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="1">
-        <v>3.45657E-5</v>
+      <c r="B198">
+        <v>4.1352100000000003E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="1">
-        <v>3.3828699999999997E-5</v>
+      <c r="B199">
+        <v>4.13192E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="1">
-        <v>3.3093299999999997E-5</v>
+      <c r="B200">
+        <v>4.1328499999999997E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="1">
-        <v>3.2037199999999999E-5</v>
+      <c r="B201">
+        <v>4.1342299999999998E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="1">
-        <v>3.1321700000000002E-5</v>
+      <c r="B202">
+        <v>4.1309400000000003E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="1">
-        <v>3.0608799999999997E-5</v>
+      <c r="B203">
+        <v>4.1318800000000003E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="1">
-        <v>2.9922900000000001E-5</v>
+      <c r="B204">
+        <v>4.1286000000000003E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="1">
-        <v>2.8918600000000001E-5</v>
+      <c r="B205">
+        <v>4.12999E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="1">
-        <v>2.8228199999999999E-5</v>
+      <c r="B206">
+        <v>4.1309400000000003E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="1">
-        <v>2.7563799999999999E-5</v>
+      <c r="B207">
+        <v>4.1276599999999997E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="1">
-        <v>2.6904199999999999E-5</v>
+      <c r="B208">
+        <v>4.1286200000000002E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="1">
-        <v>2.59515E-5</v>
+      <c r="B209">
+        <v>4.1300200000000002E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="1">
-        <v>2.53085E-5</v>
+      <c r="B210">
+        <v>4.1267499999999999E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="1">
-        <v>2.4671399999999999E-5</v>
+      <c r="B211">
+        <v>4.1277099999999997E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="1">
-        <v>2.4057999999999999E-5</v>
+      <c r="B212">
+        <v>4.1244500000000003E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="1">
-        <v>2.3157199999999999E-5</v>
+      <c r="B213">
+        <v>4.1258599999999999E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="1">
-        <v>2.25427E-5</v>
+      <c r="B214">
+        <v>4.1268300000000001E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="1">
-        <v>2.19507E-5</v>
+      <c r="B215">
+        <v>4.12357E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="1">
-        <v>2.1109799999999999E-5</v>
+      <c r="B216">
+        <v>4.1250000000000002E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="1">
-        <v>2.0517799999999999E-5</v>
+      <c r="B217">
+        <v>4.1259700000000003E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="1">
-        <v>1.9947300000000001E-5</v>
+      <c r="B218">
+        <v>4.1227199999999999E-2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="1">
-        <v>1.9386E-5</v>
+      <c r="B219">
+        <v>4.1237000000000003E-2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="1">
-        <v>1.88451E-5</v>
+      <c r="B220">
+        <v>4.1204600000000001E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="1">
-        <v>1.80478E-5</v>
+      <c r="B221">
+        <v>4.1218999999999999E-2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="1">
-        <v>1.7509000000000001E-5</v>
+      <c r="B222">
+        <v>4.1228800000000003E-2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="1">
-        <v>1.6989500000000001E-5</v>
+      <c r="B223">
+        <v>4.1196400000000001E-2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="1">
-        <v>1.62522E-5</v>
+      <c r="B224">
+        <v>4.1210999999999998E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="1">
-        <v>1.57359E-5</v>
+      <c r="B225">
+        <v>4.1220899999999998E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="1">
-        <v>1.52379E-5</v>
+      <c r="B226">
+        <v>4.1188599999999999E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="1">
-        <v>1.47524E-5</v>
+      <c r="B227">
+        <v>4.1198600000000002E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="1">
-        <v>1.40667E-5</v>
+      <c r="B228">
+        <v>4.1213199999999998E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="1">
-        <v>1.3590200000000001E-5</v>
+      <c r="B229">
+        <v>4.1180899999999999E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="1">
-        <v>1.31272E-5</v>
+      <c r="B230">
+        <v>4.1190999999999998E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="1">
-        <v>1.26803E-5</v>
+      <c r="B231">
+        <v>4.1158800000000002E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="1">
-        <v>1.20464E-5</v>
+      <c r="B232">
+        <v>4.1173599999999998E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="1">
-        <v>1.16059E-5</v>
+      <c r="B233">
+        <v>4.1183699999999997E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="1">
-        <v>1.1180400000000001E-5</v>
+      <c r="B234">
+        <v>4.1151500000000001E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="1">
-        <v>1.07707E-5</v>
+      <c r="B235">
+        <v>4.1161700000000002E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="1">
-        <v>1.0188500000000001E-5</v>
+      <c r="B236">
+        <v>4.1176600000000001E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="1">
-        <v>9.7845299999999996E-6</v>
+      <c r="B237">
+        <v>4.1144500000000001E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="1">
-        <v>9.3973099999999996E-6</v>
+      <c r="B238">
+        <v>4.1154799999999998E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="1">
-        <v>9.0228999999999996E-6</v>
+      <c r="B239">
+        <v>4.1122699999999998E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="1">
-        <v>8.4925300000000008E-6</v>
+      <c r="B240">
+        <v>4.1137800000000002E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="1">
-        <v>8.1278200000000001E-6</v>
+      <c r="B241">
+        <v>4.11481E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="1">
-        <v>7.7748799999999993E-6</v>
+      <c r="B242">
+        <v>4.1116100000000003E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="1">
-        <v>7.4409199999999999E-6</v>
+      <c r="B243">
+        <v>4.1126500000000003E-2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="1">
-        <v>6.9622400000000003E-6</v>
+      <c r="B244">
+        <v>4.11416E-2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="1">
-        <v>6.6307699999999997E-6</v>
+      <c r="B245">
+        <v>4.1109699999999999E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="1">
-        <v>6.3193200000000003E-6</v>
+      <c r="B246">
+        <v>4.1120200000000003E-2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="1">
-        <v>6.0174299999999997E-6</v>
+      <c r="B247">
+        <v>4.1088300000000001E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="1">
-        <v>5.5905600000000001E-6</v>
+      <c r="B248">
+        <v>4.1103599999999997E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="1">
-        <v>5.3016299999999998E-6</v>
+      <c r="B249">
+        <v>4.1114100000000001E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="1">
-        <v>5.0212100000000002E-6</v>
+      <c r="B250">
+        <v>4.1082300000000002E-2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="1">
-        <v>4.6542600000000002E-6</v>
+      <c r="B251">
+        <v>4.1097799999999997E-2</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="1">
-        <v>4.3878499999999998E-6</v>
+      <c r="B252">
+        <v>4.11083E-2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="1">
-        <v>4.1289000000000004E-6</v>
+      <c r="B253">
+        <v>4.1076599999999998E-2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="1">
-        <v>3.8932299999999998E-6</v>
+      <c r="B254">
+        <v>4.1087199999999997E-2</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="1">
-        <v>3.6638599999999999E-6</v>
+      <c r="B255">
+        <v>4.1055500000000002E-2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="1">
-        <v>3.3404900000000002E-6</v>
+      <c r="B256">
+        <v>4.1071099999999999E-2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="1">
-        <v>3.1273399999999999E-6</v>
+      <c r="B257">
+        <v>4.1081699999999999E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="1">
-        <v>2.9194400000000002E-6</v>
+      <c r="B258">
+        <v>4.1050099999999999E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="1">
-        <v>2.6559899999999998E-6</v>
+      <c r="B259">
+        <v>4.10658E-2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="1">
-        <v>2.4653599999999999E-6</v>
+      <c r="B260">
+        <v>4.1076599999999998E-2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="1">
-        <v>2.27892E-6</v>
+      <c r="B261">
+        <v>4.1044999999999998E-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="1">
-        <v>2.1190399999999998E-6</v>
+      <c r="B262">
+        <v>4.1055800000000003E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="1">
-        <v>1.9621799999999999E-6</v>
+      <c r="B263">
+        <v>4.10243E-2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="1">
-        <v>1.7423199999999999E-6</v>
+      <c r="B264">
+        <v>4.1040100000000003E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="1">
-        <v>1.60495E-6</v>
+      <c r="B265">
+        <v>4.1050999999999997E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="1">
-        <v>1.46956E-6</v>
+      <c r="B266">
+        <v>4.1019600000000003E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="1">
-        <v>1.30962E-6</v>
+      <c r="B267">
+        <v>4.1035500000000003E-2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="1">
-        <v>1.19477E-6</v>
+      <c r="B268">
+        <v>4.1046399999999997E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="1">
-        <v>1.08085E-6</v>
+      <c r="B269">
+        <v>4.1015099999999999E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B270">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="1">
-        <v>1.00205E-6</v>
+      <c r="B271">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B272">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="1">
-        <v>1.00205E-6</v>
+      <c r="B273">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B274">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="1">
-        <v>1.00205E-6</v>
+      <c r="B275">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B276">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="1">
-        <v>1.00205E-6</v>
+      <c r="B277">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B278">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="1">
-        <v>1.00205E-6</v>
+      <c r="B279">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B280">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="1">
-        <v>1.00205E-6</v>
+      <c r="B281">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B282">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="1">
-        <v>1.00205E-6</v>
+      <c r="B283">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B284">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="1">
-        <v>1.00205E-6</v>
+      <c r="B285">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B286">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="1">
-        <v>1.00205E-6</v>
+      <c r="B287">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B288">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="1">
-        <v>1.00205E-6</v>
+      <c r="B289">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B290">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="1">
-        <v>1.00205E-6</v>
+      <c r="B291">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B292">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="1">
-        <v>1.00205E-6</v>
+      <c r="B293">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B294">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="1">
-        <v>1.00205E-6</v>
+      <c r="B295">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B296">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="1">
-        <v>1.00205E-6</v>
+      <c r="B297">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B298">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="1">
-        <v>1.00205E-6</v>
+      <c r="B299">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B300">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="1">
-        <v>1.00205E-6</v>
+      <c r="B301">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B302">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="1">
-        <v>1.00205E-6</v>
+      <c r="B303">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B304">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="1">
-        <v>1.00205E-6</v>
+      <c r="B305">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B306">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="1">
-        <v>1.00205E-6</v>
+      <c r="B307">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B308">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="1">
-        <v>1.00205E-6</v>
+      <c r="B309">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B310">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="1">
-        <v>1.00205E-6</v>
+      <c r="B311">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B312">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" s="1">
-        <v>1.00205E-6</v>
+      <c r="B313">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B314">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="1">
-        <v>1.00205E-6</v>
+      <c r="B315">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B316">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="1">
-        <v>1.00205E-6</v>
+      <c r="B317">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B318">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="1">
-        <v>1.00205E-6</v>
+      <c r="B319">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B320">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
-        <v>1.00205E-6</v>
+      <c r="B321">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B322">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
-        <v>1.00205E-6</v>
+      <c r="B323">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B324">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
-        <v>1.00205E-6</v>
+      <c r="B325">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B326">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
-        <v>1.00205E-6</v>
+      <c r="B327">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B328">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
-        <v>1.00205E-6</v>
+      <c r="B329">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B330">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
-        <v>1.00205E-6</v>
+      <c r="B331">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B332">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
-        <v>1.00205E-6</v>
+      <c r="B333">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B334">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
-        <v>1.00205E-6</v>
+      <c r="B335">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B336">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
-        <v>1.00205E-6</v>
+      <c r="B337">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B338">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
-        <v>1.00205E-6</v>
+      <c r="B339">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B340">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
-        <v>1.00205E-6</v>
+      <c r="B341">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B342">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" s="1">
-        <v>1.00205E-6</v>
+      <c r="B343">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B344">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" s="1">
-        <v>1.00205E-6</v>
+      <c r="B345">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B346">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" s="1">
-        <v>1.00205E-6</v>
+      <c r="B347">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B348">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" s="1">
-        <v>1.00205E-6</v>
+      <c r="B349">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B350">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" s="1">
-        <v>1.00205E-6</v>
+      <c r="B351">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B352">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" s="1">
-        <v>1.00205E-6</v>
+      <c r="B353">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B354">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" s="1">
-        <v>1.00205E-6</v>
+      <c r="B355">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B356">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" s="1">
-        <v>1.00205E-6</v>
+      <c r="B357">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B358">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" s="1">
-        <v>1.00205E-6</v>
+      <c r="B359">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B360">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" s="1">
-        <v>1.00205E-6</v>
+      <c r="B361">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B362">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" s="1">
-        <v>1.00205E-6</v>
+      <c r="B363">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B364">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" s="1">
-        <v>1.00205E-6</v>
+      <c r="B365">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B366">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" s="1">
-        <v>1.00205E-6</v>
+      <c r="B367">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B368">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" s="1">
-        <v>1.00205E-6</v>
+      <c r="B369">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B370">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" s="1">
-        <v>1.00205E-6</v>
+      <c r="B371">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B372">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" s="1">
-        <v>1.00205E-6</v>
+      <c r="B373">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B374">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" s="1">
-        <v>1.00205E-6</v>
+      <c r="B375">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B376">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" s="1">
-        <v>1.00205E-6</v>
+      <c r="B377">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B378">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" s="1">
-        <v>1.00205E-6</v>
+      <c r="B379">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B380">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" s="1">
-        <v>1.00205E-6</v>
+      <c r="B381">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B382">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" s="1">
-        <v>1.00205E-6</v>
+      <c r="B383">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B384">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" s="1">
-        <v>1.00205E-6</v>
+      <c r="B385">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B386">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" s="1">
-        <v>1.00205E-6</v>
+      <c r="B387">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B388">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" s="1">
-        <v>1.00205E-6</v>
+      <c r="B389">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B390">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" s="1">
-        <v>1.00205E-6</v>
+      <c r="B391">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B392">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" s="1">
-        <v>1.00205E-6</v>
+      <c r="B393">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B394">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" s="1">
-        <v>1.00205E-6</v>
+      <c r="B395">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B396">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" s="1">
-        <v>1.00205E-6</v>
+      <c r="B397">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B398">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" s="1">
-        <v>1.00205E-6</v>
+      <c r="B399">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B400">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" s="1">
-        <v>1.00205E-6</v>
+      <c r="B401">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
-      <c r="B402" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B402">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
-      <c r="B403" s="1">
-        <v>1.00205E-6</v>
+      <c r="B403">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
-      <c r="B404" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B404">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
-      <c r="B405" s="1">
-        <v>1.00205E-6</v>
+      <c r="B405">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
-      <c r="B406" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B406">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
-      <c r="B407" s="1">
-        <v>1.00205E-6</v>
+      <c r="B407">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
-      <c r="B408" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B408">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
-      <c r="B409" s="1">
-        <v>1.00205E-6</v>
+      <c r="B409">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
-      <c r="B410" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B410">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
-      <c r="B411" s="1">
-        <v>1.00205E-6</v>
+      <c r="B411">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
-      <c r="B412" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B412">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
-      <c r="B413" s="1">
-        <v>1.00205E-6</v>
+      <c r="B413">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
-      <c r="B414" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B414">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
-      <c r="B415" s="1">
-        <v>1.00205E-6</v>
+      <c r="B415">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
-      <c r="B416" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B416">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
-      <c r="B417" s="1">
-        <v>1.00205E-6</v>
+      <c r="B417">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
-      <c r="B418" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B418">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
-      <c r="B419" s="1">
-        <v>1.00205E-6</v>
+      <c r="B419">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
-      <c r="B420" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B420">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
-      <c r="B421" s="1">
-        <v>1.00205E-6</v>
+      <c r="B421">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
-      <c r="B422" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B422">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
-      <c r="B423" s="1">
-        <v>1.00205E-6</v>
+      <c r="B423">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
-      <c r="B424" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B424">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
-      <c r="B425" s="1">
-        <v>1.00205E-6</v>
+      <c r="B425">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
-      <c r="B426" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B426">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
-      <c r="B427" s="1">
-        <v>1.00205E-6</v>
+      <c r="B427">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
-      <c r="B428" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B428">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
-      <c r="B429" s="1">
-        <v>1.00205E-6</v>
+      <c r="B429">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
-      <c r="B430" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B430">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
-      <c r="B431" s="1">
-        <v>1.00205E-6</v>
+      <c r="B431">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
-      <c r="B432" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B432">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
-      <c r="B433" s="1">
-        <v>1.00205E-6</v>
+      <c r="B433">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
-      <c r="B434" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B434">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
-      <c r="B435" s="1">
-        <v>1.00205E-6</v>
+      <c r="B435">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
-      <c r="B436" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B436">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
-      <c r="B437" s="1">
-        <v>1.00205E-6</v>
+      <c r="B437">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
-      <c r="B438" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B438">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
-      <c r="B439" s="1">
-        <v>1.00205E-6</v>
+      <c r="B439">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
-      <c r="B440" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B440">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" s="1">
-        <v>1.00205E-6</v>
+      <c r="B441">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
-      <c r="B442" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B442">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
-      <c r="B443" s="1">
-        <v>1.00205E-6</v>
+      <c r="B443">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
-      <c r="B444" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B444">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
-      <c r="B445" s="1">
-        <v>1.00205E-6</v>
+      <c r="B445">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
-      <c r="B446" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B446">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
-      <c r="B447" s="1">
-        <v>1.00205E-6</v>
+      <c r="B447">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
-      <c r="B448" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B448">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
-      <c r="B449" s="1">
-        <v>1.00205E-6</v>
+      <c r="B449">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
-      <c r="B450" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B450">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
-      <c r="B451" s="1">
-        <v>1.00205E-6</v>
+      <c r="B451">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
-      <c r="B452" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B452">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
-      <c r="B453" s="1">
-        <v>1.00205E-6</v>
+      <c r="B453">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
-      <c r="B454" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B454">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
-      <c r="B455" s="1">
-        <v>1.00205E-6</v>
+      <c r="B455">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
-      <c r="B456" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B456">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
-      <c r="B457" s="1">
-        <v>1.00205E-6</v>
+      <c r="B457">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
-      <c r="B458" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B458">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
-      <c r="B459" s="1">
-        <v>1.00205E-6</v>
+      <c r="B459">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
-      <c r="B460" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B460">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
-      <c r="B461" s="1">
-        <v>1.00205E-6</v>
+      <c r="B461">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
-      <c r="B462" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B462">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
-      <c r="B463" s="1">
-        <v>1.00205E-6</v>
+      <c r="B463">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
-      <c r="B464" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B464">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
-      <c r="B465" s="1">
-        <v>1.00205E-6</v>
+      <c r="B465">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
-      <c r="B466" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B466">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
-      <c r="B467" s="1">
-        <v>1.00205E-6</v>
+      <c r="B467">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B468">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" s="1">
-        <v>1.00205E-6</v>
+      <c r="B469">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
-      <c r="B470" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B470">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
-      <c r="B471" s="1">
-        <v>1.00205E-6</v>
+      <c r="B471">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
-      <c r="B472" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B472">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
-      <c r="B473" s="1">
-        <v>1.00205E-6</v>
+      <c r="B473">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
-      <c r="B474" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B474">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
-      <c r="B475" s="1">
-        <v>1.00205E-6</v>
+      <c r="B475">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
-      <c r="B476" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B476">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
-      <c r="B477" s="1">
-        <v>1.00205E-6</v>
+      <c r="B477">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
-      <c r="B478" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B478">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
-      <c r="B479" s="1">
-        <v>1.00205E-6</v>
+      <c r="B479">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
-      <c r="B480" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B480">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
-      <c r="B481" s="1">
-        <v>1.00205E-6</v>
+      <c r="B481">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B482">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" s="1">
-        <v>1.00205E-6</v>
+      <c r="B483">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
-      <c r="B484" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B484">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
-      <c r="B485" s="1">
-        <v>1.00205E-6</v>
+      <c r="B485">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
-      <c r="B486" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B486">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
-      <c r="B487" s="1">
-        <v>1.00205E-6</v>
+      <c r="B487">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
-      <c r="B488" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B488">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
-      <c r="B489" s="1">
-        <v>1.00205E-6</v>
+      <c r="B489">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
-      <c r="B490" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B490">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
-      <c r="B491" s="1">
-        <v>1.00205E-6</v>
+      <c r="B491">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
-      <c r="B492" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B492">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
-      <c r="B493" s="1">
-        <v>1.00205E-6</v>
+      <c r="B493">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
-      <c r="B494" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B494">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
-      <c r="B495" s="1">
-        <v>1.00205E-6</v>
+      <c r="B495">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
-      <c r="B496" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B496">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
-      <c r="B497" s="1">
-        <v>1.00205E-6</v>
+      <c r="B497">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
-      <c r="B498" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B498">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
-      <c r="B499" s="1">
-        <v>1.00205E-6</v>
+      <c r="B499">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
-      <c r="B500" s="1">
-        <v>9.9674699999999995E-7</v>
+      <c r="B500">
+        <v>4.1026100000000003E-2</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
-      <c r="B501" s="1">
-        <v>1.00205E-6</v>
+      <c r="B501">
+        <v>4.0983800000000001E-2</v>
       </c>
     </row>
   </sheetData>
